--- a/springboot-websocket/src/main/resources/excel/templatee.xlsx
+++ b/springboot-websocket/src/main/resources/excel/templatee.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16425" windowHeight="11790"/>
+    <workbookView windowWidth="16425" windowHeight="11790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t>图片名字</t>
   </si>
@@ -35,8 +36,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -47,6 +48,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -66,13 +72,59 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -80,9 +132,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -94,11 +154,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -110,15 +192,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -131,89 +215,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -224,13 +225,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,13 +375,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,163 +405,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,6 +428,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6"/>
+      </left>
+      <right style="thin">
+        <color theme="6"/>
+      </right>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -444,16 +460,45 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="6"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color theme="6"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color theme="6"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color theme="6"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,39 +523,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,27 +556,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -573,133 +574,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -708,13 +709,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1067,8 +1068,8 @@
   <sheetPr/>
   <dimension ref="C3:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="103.5" customHeight="1" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1080,18 +1081,18 @@
   </cols>
   <sheetData>
     <row r="3" customHeight="1" spans="3:4">
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="3:4">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1100,4 +1101,31 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/springboot-websocket/src/main/resources/excel/templatee.xlsx
+++ b/springboot-websocket/src/main/resources/excel/templatee.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16425" windowHeight="11790" activeTab="1"/>
+    <workbookView windowWidth="24225" windowHeight="12540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="4">
   <si>
     <t>图片名字</t>
   </si>
@@ -34,10 +34,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -72,6 +72,67 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -80,36 +141,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,60 +179,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
@@ -184,35 +209,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -237,25 +237,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -267,166 +411,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.8"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="3" tint="0.8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="3" tint="0.8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="3" tint="0.8"/>
+      </right>
+      <top style="thin">
+        <color theme="3" tint="0.8"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="3" tint="0.8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3" tint="0.8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="3" tint="0.8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="3" tint="0.8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="3" tint="0.8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="3" tint="0.8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -446,16 +539,36 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color theme="0"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color theme="0"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -474,55 +587,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -542,17 +617,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -562,10 +642,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -574,148 +654,178 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="34" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1069,7 +1179,7 @@
   <dimension ref="C3:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="103.5" customHeight="1" outlineLevelRow="3" outlineLevelCol="3"/>
@@ -1081,18 +1191,18 @@
   </cols>
   <sheetData>
     <row r="3" customHeight="1" spans="3:4">
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="12" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="3:4">
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="14" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1106,25 +1216,72 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:B3"/>
+  <dimension ref="B2:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:2">
+    <row r="3" spans="2:7">
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3"/>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="5"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="7"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="5"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="7"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="7"/>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="5"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:D9"/>
+    <mergeCell ref="F3:G4"/>
+    <mergeCell ref="F5:G6"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
